--- a/291-historique-dans-menu-ig/ig/all-profiles.xlsx
+++ b/291-historique-dans-menu-ig/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T15:21:11+00:00</t>
+    <t>2025-02-24T15:53:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/291-historique-dans-menu-ig/ig/all-profiles.xlsx
+++ b/291-historique-dans-menu-ig/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T15:53:40+00:00</t>
+    <t>2025-02-24T16:07:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/291-historique-dans-menu-ig/ig/all-profiles.xlsx
+++ b/291-historique-dans-menu-ig/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T16:07:33+00:00</t>
+    <t>2025-02-24T16:10:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/291-historique-dans-menu-ig/ig/all-profiles.xlsx
+++ b/291-historique-dans-menu-ig/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T16:10:31+00:00</t>
+    <t>2025-02-24T16:20:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/291-historique-dans-menu-ig/ig/all-profiles.xlsx
+++ b/291-historique-dans-menu-ig/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-24T16:20:33+00:00</t>
+    <t>2025-02-25T08:46:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/291-historique-dans-menu-ig/ig/all-profiles.xlsx
+++ b/291-historique-dans-menu-ig/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-25T08:46:27+00:00</t>
+    <t>2025-02-26T08:11:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/291-historique-dans-menu-ig/ig/all-profiles.xlsx
+++ b/291-historique-dans-menu-ig/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-26T08:11:22+00:00</t>
+    <t>2025-02-26T09:07:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
